--- a/task_assignment_matrix.xlsx
+++ b/task_assignment_matrix.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codes\MAGbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87677E02-DC48-4D38-9477-FEE83766CA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBAC7FA-DEAE-48AC-838D-5E10CA4A5378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="1200" windowWidth="14400" windowHeight="7360" xr2:uid="{D1D90EA6-DFF1-4D9A-9D85-45AB34026CBC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D1D90EA6-DFF1-4D9A-9D85-45AB34026CBC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Filtered" sheetId="14" r:id="rId1"/>
+    <sheet name="Filtered" sheetId="41" r:id="rId1"/>
     <sheet name="Main" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Filtered!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Filtered!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Main!$A$1:$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Grace</t>
   </si>
@@ -87,7 +87,13 @@
     <t>V01036</t>
   </si>
   <si>
-    <t>Finance</t>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>V01032</t>
+  </si>
+  <si>
+    <t>Osman</t>
   </si>
 </sst>
 </file>
@@ -152,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -162,6 +168,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,12 +485,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09454561-5A54-4EF8-8A35-DCEF43D0FB2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E15744-CB9B-47CF-8CDF-48BA3FF6FEAF}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G4"/>
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,80 +518,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>187977</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>187973</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>227711</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>188001</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="G2" s="6">
         <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G4" xr:uid="{09454561-5A54-4EF8-8A35-DCEF43D0FB2C}">
+  <autoFilter ref="A1:G2" xr:uid="{C4E15744-CB9B-47CF-8CDF-48BA3FF6FEAF}">
     <filterColumn colId="3">
       <filters>
-        <filter val="CaMSys"/>
+        <filter val="Graduation"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
@@ -589,7 +553,20 @@
         <filter val="1"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -597,10 +574,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02A8ADD-B94C-4BC8-AF47-6B6CC1D5E6B0}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -675,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -719,6 +696,29 @@
       </c>
       <c r="G5" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>187973</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -735,18 +735,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -882,14 +882,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49968086-50BD-4EE7-A332-54D29192B2D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7696130-DC09-45E7-8CD5-E92A5EFCAD73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -901,6 +893,14 @@
     <ds:schemaRef ds:uri="347ab70b-35bc-4d68-b6ab-75235aed6d99"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49968086-50BD-4EE7-A332-54D29192B2D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
